--- a/config_debug/fish3d_path_config.xlsx
+++ b/config_debug/fish3d_path_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|鱼线配置" sheetId="5" r:id="rId1"/>
@@ -1839,10 +1839,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3+60#</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>1+97#</t>
   </si>
   <si>
@@ -1909,6 +1905,10 @@
   </si>
   <si>
     <t>27.42#-14.39#-24.7#14.79#28.08#-13.29</t>
+  </si>
+  <si>
+    <t>3+80#</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2354,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99:C105"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3307,7 +3307,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="D62">
         <v>-4</v>
@@ -3704,7 +3704,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3715,7 +3715,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,7 +3726,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3737,7 +3737,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,7 +3748,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,7 +3759,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,7 +3770,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,7 +3781,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,7 +3792,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3806,7 +3806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
@@ -4929,7 +4929,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E95">
         <v>94</v>
@@ -4954,7 +4954,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -4965,7 +4965,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -4976,7 +4976,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -4987,7 +4987,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E100">
         <v>102</v>
@@ -5001,7 +5001,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E101">
         <v>103</v>
@@ -5015,7 +5015,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E102">
         <v>104</v>
@@ -5029,7 +5029,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E103">
         <v>105</v>
@@ -5043,7 +5043,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E104">
         <v>106</v>
@@ -5057,7 +5057,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E105">
         <v>107</v>
@@ -5071,7 +5071,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E106">
         <v>108</v>
@@ -5333,7 +5333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
